--- a/Code/Results/Cases/Case_5_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_204/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.62122368586419</v>
+        <v>19.41746662583446</v>
       </c>
       <c r="C2">
-        <v>22.64058397507998</v>
+        <v>16.72799125855228</v>
       </c>
       <c r="D2">
-        <v>3.246801717550443</v>
+        <v>6.596485066606053</v>
       </c>
       <c r="E2">
-        <v>9.011100991602222</v>
+        <v>12.54334689024362</v>
       </c>
       <c r="F2">
-        <v>43.1015284348498</v>
+        <v>45.95126704239596</v>
       </c>
       <c r="I2">
-        <v>24.32915638264215</v>
+        <v>29.16451583828837</v>
       </c>
       <c r="J2">
-        <v>6.811137514047353</v>
+        <v>10.34759226140396</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.85203544263266</v>
+        <v>18.95060772146591</v>
       </c>
       <c r="C3">
-        <v>21.00189708481093</v>
+        <v>16.24472651386525</v>
       </c>
       <c r="D3">
-        <v>3.168625496998733</v>
+        <v>6.599381963313015</v>
       </c>
       <c r="E3">
-        <v>8.663620742986605</v>
+        <v>12.52409565201726</v>
       </c>
       <c r="F3">
-        <v>41.16750103069087</v>
+        <v>45.68090976713003</v>
       </c>
       <c r="I3">
-        <v>23.6607955208844</v>
+        <v>29.12847201596372</v>
       </c>
       <c r="J3">
-        <v>6.673411308758068</v>
+        <v>10.35653013457574</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.71276021846954</v>
+        <v>18.6640933686027</v>
       </c>
       <c r="C4">
-        <v>19.95133318888966</v>
+        <v>15.94628212193728</v>
       </c>
       <c r="D4">
-        <v>3.120365864916372</v>
+        <v>6.601847285039993</v>
       </c>
       <c r="E4">
-        <v>8.451303618677565</v>
+        <v>12.51497466854452</v>
       </c>
       <c r="F4">
-        <v>39.99393525986098</v>
+        <v>45.52828976688078</v>
       </c>
       <c r="I4">
-        <v>23.27419354261133</v>
+        <v>29.11418353287765</v>
       </c>
       <c r="J4">
-        <v>6.593532410806971</v>
+        <v>10.36396920002335</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.23492766218587</v>
+        <v>18.54756221238129</v>
       </c>
       <c r="C5">
-        <v>19.52245252154135</v>
+        <v>15.82444127546142</v>
       </c>
       <c r="D5">
-        <v>3.100660548141891</v>
+        <v>6.603025774198867</v>
       </c>
       <c r="E5">
-        <v>8.36511082776409</v>
+        <v>12.51193858857182</v>
       </c>
       <c r="F5">
-        <v>39.51942248996263</v>
+        <v>45.46949389641838</v>
       </c>
       <c r="I5">
-        <v>23.12242922343109</v>
+        <v>29.11032478413101</v>
       </c>
       <c r="J5">
-        <v>6.562127549845958</v>
+        <v>10.36749034192591</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.15475782423305</v>
+        <v>18.52823162319703</v>
       </c>
       <c r="C6">
-        <v>19.45191617082201</v>
+        <v>15.80420259586303</v>
       </c>
       <c r="D6">
-        <v>3.097386932739319</v>
+        <v>6.603231996308753</v>
       </c>
       <c r="E6">
-        <v>8.350820655506467</v>
+        <v>12.51147561726947</v>
       </c>
       <c r="F6">
-        <v>39.4408631541566</v>
+        <v>45.45993697096499</v>
       </c>
       <c r="I6">
-        <v>23.09757214907099</v>
+        <v>29.10980238550904</v>
       </c>
       <c r="J6">
-        <v>6.556981143004966</v>
+        <v>10.3681045680599</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.70637124306247</v>
+        <v>18.66252061825084</v>
       </c>
       <c r="C7">
-        <v>19.94545245206204</v>
+        <v>15.94463954920682</v>
       </c>
       <c r="D7">
-        <v>3.120100234632502</v>
+        <v>6.601862473065524</v>
       </c>
       <c r="E7">
-        <v>8.450139763866131</v>
+        <v>12.51493096408192</v>
       </c>
       <c r="F7">
-        <v>39.98752037488318</v>
+        <v>45.52748302721311</v>
       </c>
       <c r="I7">
-        <v>23.2721236570239</v>
+        <v>29.11412355259144</v>
       </c>
       <c r="J7">
-        <v>6.593104272606519</v>
+        <v>10.3640147061251</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.02204807065513</v>
+        <v>19.25657748970488</v>
       </c>
       <c r="C8">
-        <v>22.08464414064556</v>
+        <v>16.56184055656844</v>
       </c>
       <c r="D8">
-        <v>3.219915289493306</v>
+        <v>6.597342129389307</v>
       </c>
       <c r="E8">
-        <v>8.891109939642124</v>
+        <v>12.53615017023912</v>
       </c>
       <c r="F8">
-        <v>42.43188507716007</v>
+        <v>45.85529265750304</v>
       </c>
       <c r="I8">
-        <v>24.09364916536674</v>
+        <v>29.1504558123525</v>
       </c>
       <c r="J8">
-        <v>6.762657120900382</v>
+        <v>10.35026852355528</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.15539953833387</v>
+        <v>20.4145735254694</v>
       </c>
       <c r="C9">
-        <v>25.93896395849635</v>
+        <v>17.74990608433525</v>
       </c>
       <c r="D9">
-        <v>3.412571608821266</v>
+        <v>6.593873206090767</v>
       </c>
       <c r="E9">
-        <v>9.762075560722542</v>
+        <v>12.59907010935646</v>
       </c>
       <c r="F9">
-        <v>47.3322149622268</v>
+        <v>46.60253890635854</v>
       </c>
       <c r="I9">
-        <v>25.90298524385276</v>
+        <v>29.2842187317176</v>
       </c>
       <c r="J9">
-        <v>7.133955785220354</v>
+        <v>10.33883335615761</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.96424402221511</v>
+        <v>21.25092261244811</v>
       </c>
       <c r="C10">
-        <v>28.58333590238263</v>
+        <v>18.59854820119033</v>
       </c>
       <c r="D10">
-        <v>3.551060332930013</v>
+        <v>6.594543222289103</v>
       </c>
       <c r="E10">
-        <v>10.40476364979663</v>
+        <v>12.65811267732858</v>
       </c>
       <c r="F10">
-        <v>51.00389623167806</v>
+        <v>47.21245118728908</v>
       </c>
       <c r="I10">
-        <v>27.36896334404809</v>
+        <v>29.42088862709724</v>
       </c>
       <c r="J10">
-        <v>7.433165485580632</v>
+        <v>10.33994146324614</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.19809523312759</v>
+        <v>21.62630319079044</v>
       </c>
       <c r="C11">
-        <v>29.75138708733144</v>
+        <v>18.97737736105607</v>
       </c>
       <c r="D11">
-        <v>3.613211548810662</v>
+        <v>6.595531666670129</v>
       </c>
       <c r="E11">
-        <v>10.69808668553165</v>
+        <v>12.68770771906743</v>
       </c>
       <c r="F11">
-        <v>52.69478568491483</v>
+        <v>47.50244644421399</v>
       </c>
       <c r="I11">
-        <v>28.07004450330409</v>
+        <v>29.49142252029743</v>
       </c>
       <c r="J11">
-        <v>7.575831952643421</v>
+        <v>10.3425177144995</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.65955880921102</v>
+        <v>21.7675708748482</v>
       </c>
       <c r="C12">
-        <v>30.18926970208991</v>
+        <v>19.11964579542082</v>
       </c>
       <c r="D12">
-        <v>3.636613629056432</v>
+        <v>6.596002961247621</v>
       </c>
       <c r="E12">
-        <v>10.80936964984859</v>
+        <v>12.69930318441827</v>
       </c>
       <c r="F12">
-        <v>53.33875753594158</v>
+        <v>47.61399790117354</v>
       </c>
       <c r="I12">
-        <v>28.34092669383759</v>
+        <v>29.51933286165234</v>
       </c>
       <c r="J12">
-        <v>7.630886767604067</v>
+        <v>10.34379153494255</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.56042129935737</v>
+        <v>21.73718780021456</v>
       </c>
       <c r="C13">
-        <v>30.09515054575338</v>
+        <v>19.08906068610673</v>
       </c>
       <c r="D13">
-        <v>3.631579636433718</v>
+        <v>6.59589716687793</v>
       </c>
       <c r="E13">
-        <v>10.78539210351099</v>
+        <v>12.6967887012159</v>
       </c>
       <c r="F13">
-        <v>53.19988943226387</v>
+        <v>47.589897177586</v>
       </c>
       <c r="I13">
-        <v>28.28233839327292</v>
+        <v>29.51326851754334</v>
       </c>
       <c r="J13">
-        <v>7.618982283359406</v>
+        <v>10.34350392750885</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23617229657849</v>
+        <v>21.63794384215997</v>
       </c>
       <c r="C14">
-        <v>29.78749706911752</v>
+        <v>18.9891064333999</v>
       </c>
       <c r="D14">
-        <v>3.61513957319986</v>
+        <v>6.595568504078243</v>
       </c>
       <c r="E14">
-        <v>10.70723729937038</v>
+        <v>12.6886539299416</v>
       </c>
       <c r="F14">
-        <v>52.74768712857924</v>
+        <v>47.51158944575344</v>
       </c>
       <c r="I14">
-        <v>28.09221879736145</v>
+        <v>29.49369467417652</v>
       </c>
       <c r="J14">
-        <v>7.580340120937645</v>
+        <v>10.34261653409835</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.03682681719849</v>
+        <v>21.5770350746362</v>
       </c>
       <c r="C15">
-        <v>29.59849227586776</v>
+        <v>18.9277229870329</v>
       </c>
       <c r="D15">
-        <v>3.605051939093534</v>
+        <v>6.595379780572255</v>
       </c>
       <c r="E15">
-        <v>10.6593950197446</v>
+        <v>12.68372158049097</v>
       </c>
       <c r="F15">
-        <v>52.47120334483417</v>
+        <v>47.46384778618653</v>
       </c>
       <c r="I15">
-        <v>27.97648423851015</v>
+        <v>29.48186141005066</v>
       </c>
       <c r="J15">
-        <v>7.556807800271083</v>
+        <v>10.34211182637193</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.88276999246376</v>
+        <v>21.2262752895448</v>
       </c>
       <c r="C16">
-        <v>28.50634651582771</v>
+        <v>18.5736325733484</v>
       </c>
       <c r="D16">
-        <v>3.546980488660659</v>
+        <v>6.594492269745779</v>
       </c>
       <c r="E16">
-        <v>10.38561874486072</v>
+        <v>12.65623321557216</v>
       </c>
       <c r="F16">
-        <v>50.89386180470424</v>
+        <v>47.19374607072794</v>
       </c>
       <c r="I16">
-        <v>27.32387274790498</v>
+        <v>29.41644722949594</v>
       </c>
       <c r="J16">
-        <v>7.42398080347547</v>
+        <v>10.33981482364709</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.16390853587522</v>
+        <v>21.00968407552692</v>
       </c>
       <c r="C17">
-        <v>27.82779821501872</v>
+        <v>18.35445042443637</v>
       </c>
       <c r="D17">
-        <v>3.51112911562111</v>
+        <v>6.594121978002726</v>
       </c>
       <c r="E17">
-        <v>10.21794999757041</v>
+        <v>12.64006741122453</v>
       </c>
       <c r="F17">
-        <v>49.93191568296173</v>
+        <v>47.03121358194225</v>
       </c>
       <c r="I17">
-        <v>26.93258385872243</v>
+        <v>29.37845881784961</v>
       </c>
       <c r="J17">
-        <v>7.344230452479539</v>
+        <v>10.33893666528554</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.74626845275676</v>
+        <v>20.88463678269178</v>
       </c>
       <c r="C18">
-        <v>27.43419083784575</v>
+        <v>18.22771075348627</v>
       </c>
       <c r="D18">
-        <v>3.490428986900115</v>
+        <v>6.593973424025465</v>
       </c>
       <c r="E18">
-        <v>10.12159552841482</v>
+        <v>12.63102715083646</v>
       </c>
       <c r="F18">
-        <v>49.38051419845811</v>
+        <v>46.93891411123136</v>
       </c>
       <c r="I18">
-        <v>26.71070943253838</v>
+        <v>29.35739619323556</v>
       </c>
       <c r="J18">
-        <v>7.298970764638621</v>
+        <v>10.33862660786137</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.60413130993109</v>
+        <v>20.84222200686599</v>
       </c>
       <c r="C19">
-        <v>27.30033507310542</v>
+        <v>18.18468820046666</v>
       </c>
       <c r="D19">
-        <v>3.483407053399516</v>
+        <v>6.593934231644831</v>
       </c>
       <c r="E19">
-        <v>10.08898449364857</v>
+        <v>12.62801071029375</v>
       </c>
       <c r="F19">
-        <v>49.19412555254461</v>
+        <v>46.90786858371586</v>
       </c>
       <c r="I19">
-        <v>26.6361206663252</v>
+        <v>29.35039999359683</v>
       </c>
       <c r="J19">
-        <v>7.283749147305992</v>
+        <v>10.33855511434687</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.24086047750284</v>
+        <v>21.03279032380307</v>
       </c>
       <c r="C20">
-        <v>27.90037100089365</v>
+        <v>18.37785338911575</v>
       </c>
       <c r="D20">
-        <v>3.514953863600267</v>
+        <v>6.59415473762376</v>
       </c>
       <c r="E20">
-        <v>10.23578952576062</v>
+        <v>12.64176163357396</v>
       </c>
       <c r="F20">
-        <v>50.03411718761278</v>
+        <v>47.04839328150329</v>
       </c>
       <c r="I20">
-        <v>26.97390451273738</v>
+        <v>29.38242127288083</v>
       </c>
       <c r="J20">
-        <v>7.352656250114434</v>
+        <v>10.3390099587562</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.3315638673699</v>
+        <v>21.66711924577224</v>
       </c>
       <c r="C21">
-        <v>29.87797747440962</v>
+        <v>19.01849871185998</v>
       </c>
       <c r="D21">
-        <v>3.619972105067804</v>
+        <v>6.595662418526532</v>
       </c>
       <c r="E21">
-        <v>10.73018687132324</v>
+        <v>12.69103280890251</v>
       </c>
       <c r="F21">
-        <v>52.88040340468442</v>
+        <v>47.53454375060969</v>
       </c>
       <c r="I21">
-        <v>28.14791062915997</v>
+        <v>29.49941142358787</v>
       </c>
       <c r="J21">
-        <v>7.591661497293548</v>
+        <v>10.3428690872436</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.6646551013027</v>
+        <v>22.07649414427947</v>
       </c>
       <c r="C22">
-        <v>31.14497191628308</v>
+        <v>19.43022626763575</v>
       </c>
       <c r="D22">
-        <v>3.687828599904577</v>
+        <v>6.597212499407926</v>
       </c>
       <c r="E22">
-        <v>11.0545770013604</v>
+        <v>12.72549598711765</v>
       </c>
       <c r="F22">
-        <v>54.76252792416758</v>
+        <v>47.86235921231823</v>
       </c>
       <c r="I22">
-        <v>28.94696771976773</v>
+        <v>29.58286762590068</v>
       </c>
       <c r="J22">
-        <v>7.753927053941546</v>
+        <v>10.34712969354208</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.95600182403626</v>
+        <v>21.8585252419842</v>
       </c>
       <c r="C23">
-        <v>30.4708628460101</v>
+        <v>19.21116248563492</v>
       </c>
       <c r="D23">
-        <v>3.651686294107492</v>
+        <v>6.596333958065401</v>
       </c>
       <c r="E23">
-        <v>10.88129407373135</v>
+        <v>12.7068971793595</v>
       </c>
       <c r="F23">
-        <v>53.7556932397292</v>
+        <v>47.68649808026277</v>
       </c>
       <c r="I23">
-        <v>28.51739792191426</v>
+        <v>29.53768638124926</v>
       </c>
       <c r="J23">
-        <v>7.666733307966969</v>
+        <v>10.34469661102913</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.206084115749</v>
+        <v>21.02234561615961</v>
       </c>
       <c r="C24">
-        <v>27.86757179142352</v>
+        <v>18.36727516791679</v>
       </c>
       <c r="D24">
-        <v>3.513224970385385</v>
+        <v>6.594139726520636</v>
       </c>
       <c r="E24">
-        <v>10.22772415351769</v>
+        <v>12.64099488513201</v>
       </c>
       <c r="F24">
-        <v>49.98790684679093</v>
+        <v>47.04062277527626</v>
       </c>
       <c r="I24">
-        <v>26.95521387761569</v>
+        <v>29.3806274253616</v>
       </c>
       <c r="J24">
-        <v>7.348845116036955</v>
+        <v>10.33897621601874</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.07891023653817</v>
+        <v>20.1031377174659</v>
       </c>
       <c r="C25">
-        <v>24.93086992330135</v>
+        <v>17.43203923071044</v>
       </c>
       <c r="D25">
-        <v>3.360915195521979</v>
+        <v>6.59424125364424</v>
       </c>
       <c r="E25">
-        <v>9.525983912646739</v>
+        <v>12.57978338426797</v>
       </c>
       <c r="F25">
-        <v>45.99504843438661</v>
+        <v>46.38947200627929</v>
       </c>
       <c r="I25">
-        <v>25.39080451921363</v>
+        <v>29.24130302879465</v>
       </c>
       <c r="J25">
-        <v>7.029101181062976</v>
+        <v>10.34025974244606</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_204/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.41746662583446</v>
+        <v>24.6212236858643</v>
       </c>
       <c r="C2">
-        <v>16.72799125855228</v>
+        <v>22.64058397508002</v>
       </c>
       <c r="D2">
-        <v>6.596485066606053</v>
+        <v>3.246801717550385</v>
       </c>
       <c r="E2">
-        <v>12.54334689024362</v>
+        <v>9.011100991602252</v>
       </c>
       <c r="F2">
-        <v>45.95126704239596</v>
+        <v>43.1015284348497</v>
       </c>
       <c r="I2">
-        <v>29.16451583828837</v>
+        <v>24.32915638264202</v>
       </c>
       <c r="J2">
-        <v>10.34759226140396</v>
+        <v>6.811137514047412</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.95060772146591</v>
+        <v>22.85203544263254</v>
       </c>
       <c r="C3">
-        <v>16.24472651386525</v>
+        <v>21.00189708481075</v>
       </c>
       <c r="D3">
-        <v>6.599381963313015</v>
+        <v>3.168625496998412</v>
       </c>
       <c r="E3">
-        <v>12.52409565201726</v>
+        <v>8.663620742986485</v>
       </c>
       <c r="F3">
-        <v>45.68090976713003</v>
+        <v>41.16750103069116</v>
       </c>
       <c r="I3">
-        <v>29.12847201596372</v>
+        <v>23.6607955208848</v>
       </c>
       <c r="J3">
-        <v>10.35653013457574</v>
+        <v>6.67341130875811</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6640933686027</v>
+        <v>21.71276021846952</v>
       </c>
       <c r="C4">
-        <v>15.94628212193728</v>
+        <v>19.95133318888971</v>
       </c>
       <c r="D4">
-        <v>6.601847285039993</v>
+        <v>3.120365864916328</v>
       </c>
       <c r="E4">
-        <v>12.51497466854452</v>
+        <v>8.451303618677526</v>
       </c>
       <c r="F4">
-        <v>45.52828976688078</v>
+        <v>39.99393525986103</v>
       </c>
       <c r="I4">
-        <v>29.11418353287765</v>
+        <v>23.27419354261139</v>
       </c>
       <c r="J4">
-        <v>10.36396920002335</v>
+        <v>6.593532410806994</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54756221238129</v>
+        <v>21.23492766218587</v>
       </c>
       <c r="C5">
-        <v>15.82444127546142</v>
+        <v>19.5224525215413</v>
       </c>
       <c r="D5">
-        <v>6.603025774198867</v>
+        <v>3.100660548141687</v>
       </c>
       <c r="E5">
-        <v>12.51193858857182</v>
+        <v>8.365110827763989</v>
       </c>
       <c r="F5">
-        <v>45.46949389641838</v>
+        <v>39.51942248996265</v>
       </c>
       <c r="I5">
-        <v>29.11032478413101</v>
+        <v>23.12242922343116</v>
       </c>
       <c r="J5">
-        <v>10.36749034192591</v>
+        <v>6.562127549845988</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.52823162319703</v>
+        <v>21.15475782423319</v>
       </c>
       <c r="C6">
-        <v>15.80420259586303</v>
+        <v>19.45191617082196</v>
       </c>
       <c r="D6">
-        <v>6.603231996308753</v>
+        <v>3.09738693273927</v>
       </c>
       <c r="E6">
-        <v>12.51147561726947</v>
+        <v>8.350820655506482</v>
       </c>
       <c r="F6">
-        <v>45.45993697096499</v>
+        <v>39.44086315415653</v>
       </c>
       <c r="I6">
-        <v>29.10980238550904</v>
+        <v>23.09757214907085</v>
       </c>
       <c r="J6">
-        <v>10.3681045680599</v>
+        <v>6.55698114300495</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66252061825084</v>
+        <v>21.70637124306252</v>
       </c>
       <c r="C7">
-        <v>15.94463954920682</v>
+        <v>19.94545245206197</v>
       </c>
       <c r="D7">
-        <v>6.601862473065524</v>
+        <v>3.120100234632312</v>
       </c>
       <c r="E7">
-        <v>12.51493096408192</v>
+        <v>8.450139763866138</v>
       </c>
       <c r="F7">
-        <v>45.52748302721311</v>
+        <v>39.9875203748832</v>
       </c>
       <c r="I7">
-        <v>29.11412355259144</v>
+        <v>23.27212365702391</v>
       </c>
       <c r="J7">
-        <v>10.3640147061251</v>
+        <v>6.593104272606544</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.25657748970488</v>
+        <v>24.02204807065515</v>
       </c>
       <c r="C8">
-        <v>16.56184055656844</v>
+        <v>22.08464414064559</v>
       </c>
       <c r="D8">
-        <v>6.597342129389307</v>
+        <v>3.219915289493531</v>
       </c>
       <c r="E8">
-        <v>12.53615017023912</v>
+        <v>8.891109939642158</v>
       </c>
       <c r="F8">
-        <v>45.85529265750304</v>
+        <v>42.43188507716016</v>
       </c>
       <c r="I8">
-        <v>29.1504558123525</v>
+        <v>24.09364916536672</v>
       </c>
       <c r="J8">
-        <v>10.35026852355528</v>
+        <v>6.762657120900307</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.4145735254694</v>
+        <v>28.15539953833395</v>
       </c>
       <c r="C9">
-        <v>17.74990608433525</v>
+        <v>25.93896395849639</v>
       </c>
       <c r="D9">
-        <v>6.593873206090767</v>
+        <v>3.412571608821053</v>
       </c>
       <c r="E9">
-        <v>12.59907010935646</v>
+        <v>9.762075560722447</v>
       </c>
       <c r="F9">
-        <v>46.60253890635854</v>
+        <v>47.33221496222684</v>
       </c>
       <c r="I9">
-        <v>29.2842187317176</v>
+        <v>25.90298524385282</v>
       </c>
       <c r="J9">
-        <v>10.33883335615761</v>
+        <v>7.133955785220332</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.25092261244811</v>
+        <v>30.96424402221519</v>
       </c>
       <c r="C10">
-        <v>18.59854820119033</v>
+        <v>28.58333590238264</v>
       </c>
       <c r="D10">
-        <v>6.594543222289103</v>
+        <v>3.551060332930034</v>
       </c>
       <c r="E10">
-        <v>12.65811267732858</v>
+        <v>10.40476364979663</v>
       </c>
       <c r="F10">
-        <v>47.21245118728908</v>
+        <v>51.00389623167821</v>
       </c>
       <c r="I10">
-        <v>29.42088862709724</v>
+        <v>27.36896334404818</v>
       </c>
       <c r="J10">
-        <v>10.33994146324614</v>
+        <v>7.433165485580655</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.62630319079044</v>
+        <v>32.19809523312762</v>
       </c>
       <c r="C11">
-        <v>18.97737736105607</v>
+        <v>29.75138708733142</v>
       </c>
       <c r="D11">
-        <v>6.595531666670129</v>
+        <v>3.613211548810592</v>
       </c>
       <c r="E11">
-        <v>12.68770771906743</v>
+        <v>10.69808668553164</v>
       </c>
       <c r="F11">
-        <v>47.50244644421399</v>
+        <v>52.69478568491509</v>
       </c>
       <c r="I11">
-        <v>29.49142252029743</v>
+        <v>28.07004450330427</v>
       </c>
       <c r="J11">
-        <v>10.3425177144995</v>
+        <v>7.575831952643446</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.7675708748482</v>
+        <v>32.65955880921096</v>
       </c>
       <c r="C12">
-        <v>19.11964579542082</v>
+        <v>30.18926970209</v>
       </c>
       <c r="D12">
-        <v>6.596002961247621</v>
+        <v>3.636613629056395</v>
       </c>
       <c r="E12">
-        <v>12.69930318441827</v>
+        <v>10.80936964984864</v>
       </c>
       <c r="F12">
-        <v>47.61399790117354</v>
+        <v>53.33875753594164</v>
       </c>
       <c r="I12">
-        <v>29.51933286165234</v>
+        <v>28.34092669383768</v>
       </c>
       <c r="J12">
-        <v>10.34379153494255</v>
+        <v>7.630886767604118</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.73718780021456</v>
+        <v>32.56042129935746</v>
       </c>
       <c r="C13">
-        <v>19.08906068610673</v>
+        <v>30.09515054575338</v>
       </c>
       <c r="D13">
-        <v>6.59589716687793</v>
+        <v>3.63157963643369</v>
       </c>
       <c r="E13">
-        <v>12.6967887012159</v>
+        <v>10.785392103511</v>
       </c>
       <c r="F13">
-        <v>47.589897177586</v>
+        <v>53.19988943226387</v>
       </c>
       <c r="I13">
-        <v>29.51326851754334</v>
+        <v>28.28233839327288</v>
       </c>
       <c r="J13">
-        <v>10.34350392750885</v>
+        <v>7.618982283359414</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.63794384215997</v>
+        <v>32.23617229657868</v>
       </c>
       <c r="C14">
-        <v>18.9891064333999</v>
+        <v>29.78749706911752</v>
       </c>
       <c r="D14">
-        <v>6.595568504078243</v>
+        <v>3.615139573199819</v>
       </c>
       <c r="E14">
-        <v>12.6886539299416</v>
+        <v>10.70723729937037</v>
       </c>
       <c r="F14">
-        <v>47.51158944575344</v>
+        <v>52.74768712857947</v>
       </c>
       <c r="I14">
-        <v>29.49369467417652</v>
+        <v>28.09221879736157</v>
       </c>
       <c r="J14">
-        <v>10.34261653409835</v>
+        <v>7.580340120937656</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.5770350746362</v>
+        <v>32.03682681719853</v>
       </c>
       <c r="C15">
-        <v>18.9277229870329</v>
+        <v>29.59849227586781</v>
       </c>
       <c r="D15">
-        <v>6.595379780572255</v>
+        <v>3.605051939093482</v>
       </c>
       <c r="E15">
-        <v>12.68372158049097</v>
+        <v>10.6593950197446</v>
       </c>
       <c r="F15">
-        <v>47.46384778618653</v>
+        <v>52.47120334483436</v>
       </c>
       <c r="I15">
-        <v>29.48186141005066</v>
+        <v>27.97648423851027</v>
       </c>
       <c r="J15">
-        <v>10.34211182637193</v>
+        <v>7.556807800271091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.2262752895448</v>
+        <v>30.88276999246378</v>
       </c>
       <c r="C16">
-        <v>18.5736325733484</v>
+        <v>28.50634651582763</v>
       </c>
       <c r="D16">
-        <v>6.594492269745779</v>
+        <v>3.546980488660723</v>
       </c>
       <c r="E16">
-        <v>12.65623321557216</v>
+        <v>10.38561874486072</v>
       </c>
       <c r="F16">
-        <v>47.19374607072794</v>
+        <v>50.89386180470438</v>
       </c>
       <c r="I16">
-        <v>29.41644722949594</v>
+        <v>27.32387274790506</v>
       </c>
       <c r="J16">
-        <v>10.33981482364709</v>
+        <v>7.423980803475486</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.00968407552692</v>
+        <v>30.16390853587538</v>
       </c>
       <c r="C17">
-        <v>18.35445042443637</v>
+        <v>27.82779821501872</v>
       </c>
       <c r="D17">
-        <v>6.594121978002726</v>
+        <v>3.511129115621017</v>
       </c>
       <c r="E17">
-        <v>12.64006741122453</v>
+        <v>10.21794999757035</v>
       </c>
       <c r="F17">
-        <v>47.03121358194225</v>
+        <v>49.931915682962</v>
       </c>
       <c r="I17">
-        <v>29.37845881784961</v>
+        <v>26.93258385872256</v>
       </c>
       <c r="J17">
-        <v>10.33893666528554</v>
+        <v>7.344230452479504</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.88463678269178</v>
+        <v>29.74626845275675</v>
       </c>
       <c r="C18">
-        <v>18.22771075348627</v>
+        <v>27.43419083784578</v>
       </c>
       <c r="D18">
-        <v>6.593973424025465</v>
+        <v>3.49042898690018</v>
       </c>
       <c r="E18">
-        <v>12.63102715083646</v>
+        <v>10.12159552841479</v>
       </c>
       <c r="F18">
-        <v>46.93891411123136</v>
+        <v>49.38051419845821</v>
       </c>
       <c r="I18">
-        <v>29.35739619323556</v>
+        <v>26.71070943253848</v>
       </c>
       <c r="J18">
-        <v>10.33862660786137</v>
+        <v>7.298970764638625</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.84222200686599</v>
+        <v>29.60413130993115</v>
       </c>
       <c r="C19">
-        <v>18.18468820046666</v>
+        <v>27.3003350731054</v>
       </c>
       <c r="D19">
-        <v>6.593934231644831</v>
+        <v>3.483407053399355</v>
       </c>
       <c r="E19">
-        <v>12.62801071029375</v>
+        <v>10.08898449364848</v>
       </c>
       <c r="F19">
-        <v>46.90786858371586</v>
+        <v>49.19412555254474</v>
       </c>
       <c r="I19">
-        <v>29.35039999359683</v>
+        <v>26.63612066632531</v>
       </c>
       <c r="J19">
-        <v>10.33855511434687</v>
+        <v>7.283749147305958</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.03279032380307</v>
+        <v>30.24086047750278</v>
       </c>
       <c r="C20">
-        <v>18.37785338911575</v>
+        <v>27.90037100089375</v>
       </c>
       <c r="D20">
-        <v>6.59415473762376</v>
+        <v>3.514953863600252</v>
       </c>
       <c r="E20">
-        <v>12.64176163357396</v>
+        <v>10.23578952576064</v>
       </c>
       <c r="F20">
-        <v>47.04839328150329</v>
+        <v>50.03411718761285</v>
       </c>
       <c r="I20">
-        <v>29.38242127288083</v>
+        <v>26.97390451273743</v>
       </c>
       <c r="J20">
-        <v>10.3390099587562</v>
+        <v>7.352656250114451</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.66711924577224</v>
+        <v>32.33156386736984</v>
       </c>
       <c r="C21">
-        <v>19.01849871185998</v>
+        <v>29.87797747440956</v>
       </c>
       <c r="D21">
-        <v>6.595662418526532</v>
+        <v>3.61997210506778</v>
       </c>
       <c r="E21">
-        <v>12.69103280890251</v>
+        <v>10.73018687132324</v>
       </c>
       <c r="F21">
-        <v>47.53454375060969</v>
+        <v>52.88040340468449</v>
       </c>
       <c r="I21">
-        <v>29.49941142358787</v>
+        <v>28.14791062916003</v>
       </c>
       <c r="J21">
-        <v>10.3428690872436</v>
+        <v>7.591661497293599</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.07649414427947</v>
+        <v>33.66465510130288</v>
       </c>
       <c r="C22">
-        <v>19.43022626763575</v>
+        <v>31.14497191628336</v>
       </c>
       <c r="D22">
-        <v>6.597212499407926</v>
+        <v>3.687828599904499</v>
       </c>
       <c r="E22">
-        <v>12.72549598711765</v>
+        <v>11.0545770013604</v>
       </c>
       <c r="F22">
-        <v>47.86235921231823</v>
+        <v>54.76252792416791</v>
       </c>
       <c r="I22">
-        <v>29.58286762590068</v>
+        <v>28.94696771976785</v>
       </c>
       <c r="J22">
-        <v>10.34712969354208</v>
+        <v>7.753927053941571</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.8585252419842</v>
+        <v>32.95600182403619</v>
       </c>
       <c r="C23">
-        <v>19.21116248563492</v>
+        <v>30.47086284601005</v>
       </c>
       <c r="D23">
-        <v>6.596333958065401</v>
+        <v>3.651686294107515</v>
       </c>
       <c r="E23">
-        <v>12.7068971793595</v>
+        <v>10.88129407373136</v>
       </c>
       <c r="F23">
-        <v>47.68649808026277</v>
+        <v>53.7556932397291</v>
       </c>
       <c r="I23">
-        <v>29.53768638124926</v>
+        <v>28.51739792191419</v>
       </c>
       <c r="J23">
-        <v>10.34469661102913</v>
+        <v>7.666733307966958</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.02234561615961</v>
+        <v>30.20608411574887</v>
       </c>
       <c r="C24">
-        <v>18.36727516791679</v>
+        <v>27.86757179142351</v>
       </c>
       <c r="D24">
-        <v>6.594139726520636</v>
+        <v>3.513224970385435</v>
       </c>
       <c r="E24">
-        <v>12.64099488513201</v>
+        <v>10.22772415351767</v>
       </c>
       <c r="F24">
-        <v>47.04062277527626</v>
+        <v>49.9879068467909</v>
       </c>
       <c r="I24">
-        <v>29.3806274253616</v>
+        <v>26.95521387761576</v>
       </c>
       <c r="J24">
-        <v>10.33897621601874</v>
+        <v>7.348845116036962</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.1031377174659</v>
+        <v>27.07891023653814</v>
       </c>
       <c r="C25">
-        <v>17.43203923071044</v>
+        <v>24.93086992330133</v>
       </c>
       <c r="D25">
-        <v>6.59424125364424</v>
+        <v>3.360915195521813</v>
       </c>
       <c r="E25">
-        <v>12.57978338426797</v>
+        <v>9.525983912646689</v>
       </c>
       <c r="F25">
-        <v>46.38947200627929</v>
+        <v>45.99504843438677</v>
       </c>
       <c r="I25">
-        <v>29.24130302879465</v>
+        <v>25.39080451921381</v>
       </c>
       <c r="J25">
-        <v>10.34025974244606</v>
+        <v>7.029101181062999</v>
       </c>
       <c r="K25">
         <v>0</v>
